--- a/ЗАВОДЫ/МИРАТОРГ/2025/08,25/25,08,25 Мираторг КИ Ташкент/Бланк заказа Моспродторг 3 квартал заказ на 01,09,25.xlsx
+++ b/ЗАВОДЫ/МИРАТОРГ/2025/08,25/25,08,25 Мираторг КИ Ташкент/Бланк заказа Моспродторг 3 квартал заказ на 01,09,25.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\25,08,25 Мираторг КИ Ташкент\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\МИРАТОРГ\2025\08,25\25,08,25 Мираторг КИ Ташкент\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EC0754-926A-4CD2-B27A-C526EAE02227}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425CD3EC-9EA7-4A40-B8EA-CA3335524F73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1469,10 +1469,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="R103" sqref="R103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L106" sqref="L106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1593,7 @@
         <v>36.659999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1010016094</v>
       </c>
@@ -1643,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1010016095</v>
       </c>
@@ -1694,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1010017107</v>
       </c>
@@ -1796,7 +1797,7 @@
         <v>36.659999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1010015940</v>
       </c>
@@ -1898,7 +1899,7 @@
         <v>36.659999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1010016093</v>
       </c>
@@ -1949,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>1010022320</v>
       </c>
@@ -2000,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>1010015941</v>
       </c>
@@ -2051,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="53">
         <v>1010033324</v>
       </c>
@@ -2098,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>1010028068</v>
       </c>
@@ -2294,7 +2295,7 @@
         <v>179.99999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>1010016127</v>
       </c>
@@ -2345,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>1010016038</v>
       </c>
@@ -2396,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>1010016107</v>
       </c>
@@ -2651,7 +2652,7 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>1010023293</v>
       </c>
@@ -2702,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>1010016109</v>
       </c>
@@ -2753,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>1010022846</v>
       </c>
@@ -2804,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>1010022854</v>
       </c>
@@ -2855,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>1010026572</v>
       </c>
@@ -2957,7 +2958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>1010018239</v>
       </c>
@@ -3008,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>1010026651</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>1010027117</v>
       </c>
@@ -3110,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>1010026649</v>
       </c>
@@ -3161,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>1010020988</v>
       </c>
@@ -3212,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>1010021729</v>
       </c>
@@ -3263,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>1010021730</v>
       </c>
@@ -3314,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>1010023761</v>
       </c>
@@ -3365,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>1010021819</v>
       </c>
@@ -3416,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>1010024272</v>
       </c>
@@ -3467,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>1010026904</v>
       </c>
@@ -3518,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>1010026900</v>
       </c>
@@ -3569,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>1010026898</v>
       </c>
@@ -3671,7 +3672,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>1010024328</v>
       </c>
@@ -3722,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>1010029770</v>
       </c>
@@ -3773,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>1010030289</v>
       </c>
@@ -3824,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>1010030636</v>
       </c>
@@ -3875,7 +3876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>1010030635</v>
       </c>
@@ -3926,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>1010023762</v>
       </c>
@@ -3977,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="63">
         <v>1010033332</v>
       </c>
@@ -4029,7 +4030,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="63">
         <v>1010033333</v>
       </c>
@@ -4084,7 +4085,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>1010017262</v>
       </c>
@@ -4135,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>1010017607</v>
       </c>
@@ -4186,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>1010030908</v>
       </c>
@@ -4237,7 +4238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>1010030909</v>
       </c>
@@ -4288,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>1010031028</v>
       </c>
@@ -4339,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>1010031030</v>
       </c>
@@ -4390,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>1010030600</v>
       </c>
@@ -4441,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>1010030939</v>
       </c>
@@ -4492,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>1010031149</v>
       </c>
@@ -4543,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>1010031142</v>
       </c>
@@ -4594,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="20">
         <v>1010031145</v>
       </c>
@@ -4645,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>1010031141</v>
       </c>
@@ -4696,7 +4697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="21">
         <v>1010031330</v>
       </c>
@@ -4747,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21">
         <v>1010031137</v>
       </c>
@@ -4798,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21">
         <v>1010031138</v>
       </c>
@@ -4849,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="21">
         <v>1010031327</v>
       </c>
@@ -4900,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21">
         <v>1010030995</v>
       </c>
@@ -4951,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21">
         <v>1010030598</v>
       </c>
@@ -5003,7 +5004,7 @@
       </c>
       <c r="R69"/>
     </row>
-    <row r="70" spans="1:18" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="55">
         <v>1010027653</v>
       </c>
@@ -5049,7 +5050,7 @@
       <c r="P70" s="32"/>
       <c r="R70"/>
     </row>
-    <row r="71" spans="1:18" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21">
         <v>1010030745</v>
       </c>
@@ -5101,7 +5102,7 @@
       </c>
       <c r="R71"/>
     </row>
-    <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>1010030746</v>
       </c>
@@ -5152,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="21">
         <v>1010030118</v>
       </c>
@@ -5204,7 +5205,7 @@
       </c>
       <c r="R73"/>
     </row>
-    <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21">
         <v>1010031341</v>
       </c>
@@ -5255,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21">
         <v>1010030370</v>
       </c>
@@ -5306,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="21">
         <v>1010025037</v>
       </c>
@@ -5357,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="27">
         <v>1010015950</v>
       </c>
@@ -5408,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="27">
         <v>1010015947</v>
       </c>
@@ -5459,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="27">
         <v>1010015949</v>
       </c>
@@ -5510,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="21">
         <v>1010030987</v>
       </c>
@@ -5561,7 +5562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="21">
         <v>1010030988</v>
       </c>
@@ -5612,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="21">
         <v>1010030989</v>
       </c>
@@ -5663,7 +5664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="21">
         <v>1010031576</v>
       </c>
@@ -5714,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="21">
         <v>1010031574</v>
       </c>
@@ -5765,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="21">
         <v>1010031575</v>
       </c>
@@ -5816,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="21">
         <v>1010031847</v>
       </c>
@@ -5867,7 +5868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="21">
         <v>1010030936</v>
       </c>
@@ -5918,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="27">
         <v>1010032041</v>
       </c>
@@ -5969,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="27">
         <v>1010032043</v>
       </c>
@@ -6020,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="27">
         <v>1010031948</v>
       </c>
@@ -6071,7 +6072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="27">
         <v>1010031947</v>
       </c>
@@ -6167,7 +6168,7 @@
         <v>55.44</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="27">
         <v>1010032371</v>
       </c>
@@ -6218,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="27">
         <v>1010032372</v>
       </c>
@@ -6269,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="27">
         <v>1010025625</v>
       </c>
@@ -6320,7 +6321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="27">
         <v>1010032502</v>
       </c>
@@ -6371,7 +6372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="27">
         <v>1010032373</v>
       </c>
@@ -6422,7 +6423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="27">
         <v>1010032565</v>
       </c>
@@ -6473,7 +6474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="27">
         <v>1010032677</v>
       </c>
@@ -6524,7 +6525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="27">
         <v>1010032754</v>
       </c>
@@ -6575,7 +6576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="27">
         <v>1010032675</v>
       </c>
@@ -6626,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="27">
         <v>1010032928</v>
       </c>
@@ -6691,7 +6692,20 @@
       <c r="N105" s="67"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P103" xr:uid="{8823EB51-E913-4702-A7A2-61189441E985}"/>
+  <autoFilter ref="A1:P103" xr:uid="{8823EB51-E913-4702-A7A2-61189441E985}">
+    <filterColumn colId="14">
+      <filters>
+        <filter val="100"/>
+        <filter val="117"/>
+        <filter val="13"/>
+        <filter val="17"/>
+        <filter val="33"/>
+        <filter val="50"/>
+        <filter val="60"/>
+        <filter val="833"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
